--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Spp1-Itgav.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Spp1-Itgav.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.21764362749015</v>
+        <v>463.732605</v>
       </c>
       <c r="H2">
-        <v>4.21764362749015</v>
+        <v>1391.197815</v>
       </c>
       <c r="I2">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="J2">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N2">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q2">
-        <v>41.93729145141614</v>
+        <v>7122.395192133269</v>
       </c>
       <c r="R2">
-        <v>41.93729145141614</v>
+        <v>64101.55672919942</v>
       </c>
       <c r="S2">
-        <v>0.0004947000969435657</v>
+        <v>0.03675854313750353</v>
       </c>
       <c r="T2">
-        <v>0.0004947000969435657</v>
+        <v>0.03675854313750353</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.21764362749015</v>
+        <v>463.732605</v>
       </c>
       <c r="H3">
-        <v>4.21764362749015</v>
+        <v>1391.197815</v>
       </c>
       <c r="I3">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="J3">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N3">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q3">
-        <v>213.297735349949</v>
+        <v>23461.42180650429</v>
       </c>
       <c r="R3">
-        <v>213.297735349949</v>
+        <v>211152.7962585386</v>
       </c>
       <c r="S3">
-        <v>0.002516099793371363</v>
+        <v>0.1210839418871462</v>
       </c>
       <c r="T3">
-        <v>0.002516099793371363</v>
+        <v>0.1210839418871462</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.21764362749015</v>
+        <v>463.732605</v>
       </c>
       <c r="H4">
-        <v>4.21764362749015</v>
+        <v>1391.197815</v>
       </c>
       <c r="I4">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="J4">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N4">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q4">
-        <v>240.3605974891807</v>
+        <v>27998.85614352645</v>
       </c>
       <c r="R4">
-        <v>240.3605974891807</v>
+        <v>251989.7052917381</v>
       </c>
       <c r="S4">
-        <v>0.002835338353147169</v>
+        <v>0.1445015522993343</v>
       </c>
       <c r="T4">
-        <v>0.002835338353147169</v>
+        <v>0.1445015522993343</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.21764362749015</v>
+        <v>463.732605</v>
       </c>
       <c r="H5">
-        <v>4.21764362749015</v>
+        <v>1391.197815</v>
       </c>
       <c r="I5">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="J5">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N5">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q5">
-        <v>107.1321053205254</v>
+        <v>11793.74839491282</v>
       </c>
       <c r="R5">
-        <v>107.1321053205254</v>
+        <v>106143.7355542154</v>
       </c>
       <c r="S5">
-        <v>0.001263750257911388</v>
+        <v>0.06086730621267584</v>
       </c>
       <c r="T5">
-        <v>0.001263750257911388</v>
+        <v>0.06086730621267585</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.1269934496523</v>
+        <v>12.24662533333333</v>
       </c>
       <c r="H6">
-        <v>12.1269934496523</v>
+        <v>36.739876</v>
       </c>
       <c r="I6">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444229</v>
       </c>
       <c r="J6">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444227</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N6">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q6">
-        <v>120.5823212309017</v>
+        <v>188.0939671990302</v>
       </c>
       <c r="R6">
-        <v>120.5823212309017</v>
+        <v>1692.845704791272</v>
       </c>
       <c r="S6">
-        <v>0.00142241150866201</v>
+        <v>0.0009707493084385924</v>
       </c>
       <c r="T6">
-        <v>0.00142241150866201</v>
+        <v>0.0009707493084385924</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.1269934496523</v>
+        <v>12.24662533333333</v>
       </c>
       <c r="H7">
-        <v>12.1269934496523</v>
+        <v>36.739876</v>
       </c>
       <c r="I7">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444229</v>
       </c>
       <c r="J7">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444227</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N7">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q7">
-        <v>613.2951163903291</v>
+        <v>619.5881841251049</v>
       </c>
       <c r="R7">
-        <v>613.2951163903291</v>
+        <v>5576.293657125944</v>
       </c>
       <c r="S7">
-        <v>0.007234543363030329</v>
+        <v>0.003197682574368445</v>
       </c>
       <c r="T7">
-        <v>0.007234543363030329</v>
+        <v>0.003197682574368445</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.1269934496523</v>
+        <v>12.24662533333333</v>
       </c>
       <c r="H8">
-        <v>12.1269934496523</v>
+        <v>36.739876</v>
       </c>
       <c r="I8">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444229</v>
       </c>
       <c r="J8">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444227</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N8">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q8">
-        <v>691.108981400685</v>
+        <v>739.4164163886356</v>
       </c>
       <c r="R8">
-        <v>691.108981400685</v>
+        <v>6654.74774749772</v>
       </c>
       <c r="S8">
-        <v>0.008152450200403746</v>
+        <v>0.003816113751792414</v>
       </c>
       <c r="T8">
-        <v>0.008152450200403746</v>
+        <v>0.003816113751792413</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.1269934496523</v>
+        <v>12.24662533333333</v>
       </c>
       <c r="H9">
-        <v>12.1269934496523</v>
+        <v>36.739876</v>
       </c>
       <c r="I9">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444229</v>
       </c>
       <c r="J9">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444227</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N9">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q9">
-        <v>308.0370117099244</v>
+        <v>311.4588370772391</v>
       </c>
       <c r="R9">
-        <v>308.0370117099244</v>
+        <v>2803.129533695152</v>
       </c>
       <c r="S9">
-        <v>0.003633661933833834</v>
+        <v>0.001607433003844777</v>
       </c>
       <c r="T9">
-        <v>0.003633661933833834</v>
+        <v>0.001607433003844777</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>541.593394322089</v>
+        <v>689.7685036666667</v>
       </c>
       <c r="H10">
-        <v>541.593394322089</v>
+        <v>2069.305511</v>
       </c>
       <c r="I10">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="J10">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N10">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q10">
-        <v>5385.225028925287</v>
+        <v>10594.04454470142</v>
       </c>
       <c r="R10">
-        <v>5385.225028925287</v>
+        <v>95346.40090231274</v>
       </c>
       <c r="S10">
-        <v>0.06352511694653792</v>
+        <v>0.05467565796224837</v>
       </c>
       <c r="T10">
-        <v>0.06352511694653792</v>
+        <v>0.05467565796224837</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>541.593394322089</v>
+        <v>689.7685036666667</v>
       </c>
       <c r="H11">
-        <v>541.593394322089</v>
+        <v>2069.305511</v>
       </c>
       <c r="I11">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="J11">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N11">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q11">
-        <v>27389.85431022249</v>
+        <v>34897.15762678574</v>
       </c>
       <c r="R11">
-        <v>27389.85431022249</v>
+        <v>314074.4186410717</v>
       </c>
       <c r="S11">
-        <v>0.3230958202971799</v>
+        <v>0.1801035521613979</v>
       </c>
       <c r="T11">
-        <v>0.3230958202971799</v>
+        <v>0.1801035521613979</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>541.593394322089</v>
+        <v>689.7685036666667</v>
       </c>
       <c r="H12">
-        <v>541.593394322089</v>
+        <v>2069.305511</v>
       </c>
       <c r="I12">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="J12">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N12">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q12">
-        <v>30865.03350045186</v>
+        <v>41646.26100961458</v>
       </c>
       <c r="R12">
-        <v>30865.03350045186</v>
+        <v>374816.3490865312</v>
       </c>
       <c r="S12">
-        <v>0.3640896809592202</v>
+        <v>0.214935543527336</v>
       </c>
       <c r="T12">
-        <v>0.3640896809592202</v>
+        <v>0.214935543527336</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>541.593394322089</v>
+        <v>689.7685036666667</v>
       </c>
       <c r="H13">
-        <v>541.593394322089</v>
+        <v>2069.305511</v>
       </c>
       <c r="I13">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="J13">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N13">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O13">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P13">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q13">
-        <v>13756.98036297648</v>
+        <v>17542.3424949388</v>
       </c>
       <c r="R13">
-        <v>13756.98036297648</v>
+        <v>157881.0824544492</v>
       </c>
       <c r="S13">
-        <v>0.1622799013402994</v>
+        <v>0.09053568861852665</v>
       </c>
       <c r="T13">
-        <v>0.1622799013402994</v>
+        <v>0.09053568861852666</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.2700936895638</v>
+        <v>111.00921</v>
       </c>
       <c r="H14">
-        <v>35.2700936895638</v>
+        <v>333.02763</v>
       </c>
       <c r="I14">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="J14">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N14">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O14">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P14">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q14">
-        <v>350.7010855391302</v>
+        <v>1704.97276892254</v>
       </c>
       <c r="R14">
-        <v>350.7010855391302</v>
+        <v>15344.75492030286</v>
       </c>
       <c r="S14">
-        <v>0.004136935291002512</v>
+        <v>0.008799331318196157</v>
       </c>
       <c r="T14">
-        <v>0.004136935291002512</v>
+        <v>0.008799331318196159</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.2700936895638</v>
+        <v>111.00921</v>
       </c>
       <c r="H15">
-        <v>35.2700936895638</v>
+        <v>333.02763</v>
       </c>
       <c r="I15">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="J15">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N15">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P15">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q15">
-        <v>1783.704782578161</v>
+        <v>5616.24063552058</v>
       </c>
       <c r="R15">
-        <v>1783.704782578161</v>
+        <v>50546.16571968522</v>
       </c>
       <c r="S15">
-        <v>0.02104091366707283</v>
+        <v>0.02898530874829904</v>
       </c>
       <c r="T15">
-        <v>0.02104091366707283</v>
+        <v>0.02898530874829904</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.2700936895638</v>
+        <v>111.00921</v>
       </c>
       <c r="H16">
-        <v>35.2700936895638</v>
+        <v>333.02763</v>
       </c>
       <c r="I16">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="J16">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N16">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O16">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P16">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q16">
-        <v>2010.018280697599</v>
+        <v>6702.420463612901</v>
       </c>
       <c r="R16">
-        <v>2010.018280697599</v>
+        <v>60321.7841725161</v>
       </c>
       <c r="S16">
-        <v>0.02371054982106776</v>
+        <v>0.03459106172731327</v>
       </c>
       <c r="T16">
-        <v>0.02371054982106776</v>
+        <v>0.03459106172731327</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.2700936895638</v>
+        <v>111.00921</v>
       </c>
       <c r="H17">
-        <v>35.2700936895638</v>
+        <v>333.02763</v>
       </c>
       <c r="I17">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="J17">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N17">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O17">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P17">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q17">
-        <v>895.8934716975375</v>
+        <v>2823.21035472164</v>
       </c>
       <c r="R17">
-        <v>895.8934716975375</v>
+        <v>25408.89319249476</v>
       </c>
       <c r="S17">
-        <v>0.01056812617031598</v>
+        <v>0.01457053376157848</v>
       </c>
       <c r="T17">
-        <v>0.01056812617031598</v>
+        <v>0.01457053376157848</v>
       </c>
     </row>
   </sheetData>
